--- a/medicine/Psychotrope/Eberhard_Gockel/Eberhard_Gockel.xlsx
+++ b/medicine/Psychotrope/Eberhard_Gockel/Eberhard_Gockel.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Eberhard Gockel ou Göckel, né le 18 juillet 1636 à Ulm où il est mort le 14 février 1703, est un médecin allemand.
 </t>
@@ -511,9 +523,11 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Partisan zélé parmi les plus connus de la chimie en Allemagne à son époque, il a démontré, en 1696, les dangers de la pratique consistant à « corriger » les vins en le sucrant par des composés chimiques du plomb, chez les habitants des régions viticoles d’Europe aux XVIIe et XVIIIe siècles[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Partisan zélé parmi les plus connus de la chimie en Allemagne à son époque, il a démontré, en 1696, les dangers de la pratique consistant à « corriger » les vins en le sucrant par des composés chimiques du plomb, chez les habitants des régions viticoles d’Europe aux XVIIe et XVIIIe siècles.
 Médecin personnel du prince de Wurtemberg, il était membre de l’Académie Léopoldine.
 </t>
         </is>
@@ -543,7 +557,9 @@
           <t>Publications</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Discursus Politico–Historico–Medicus De Ira, Oder Politische, Historische, und Medicinische Betrachtung deß Zorns, und deren darauß entspringenden Unfällen, Schadens und mannigfaltigen Kranckheiten. Auch wie demselben zu begegnen und abzuhelffen seye?, Fick, Nördlingen 1667. lire en ligne; Leipzig 1668 lire en ligne
 Epitome theorico-practica de odontalgia, oder ein kurtzer iedoch aigentlicher Bericht von dem Zahnwehe : aus waserley Ursachen dasselbige entspringe, auch wie von solchem, vermittelst der natürlichen Mitteln, zu begegnen seye.  Nördlingen 1668 lire en ligne
